--- a/genshin/459619920821825411_2020-11-20_14-00-02.xlsx
+++ b/genshin/459619920821825411_2020-11-20_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:48:27</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.0753125</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:41:51</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44172.94572916667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3735788338</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-22 19:00:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44157.79202546296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>3735788338</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-22 18:53:32</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44157.78717592593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>3735788338</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-22 18:41:32</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44157.77884259259</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -890,10 +896,8 @@
           <t>3732686450</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-21 22:43:46</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44156.94706018519</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -953,10 +957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-21 18:44:07</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44156.78063657408</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -1020,10 +1022,8 @@
           <t>3731101125</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-21 16:33:15</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44156.68975694444</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1099,10 +1099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-21 12:58:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44156.54030092592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1178,10 +1176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-21 11:00:18</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44156.45854166667</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1241,10 +1237,8 @@
           <t>3729906486</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-21 10:30:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44156.43751157408</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1316,10 +1310,8 @@
           <t>3729470483</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-21 06:19:07</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44156.26327546296</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1391,10 +1383,8 @@
           <t>3728447925</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-20 22:00:59</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44155.91734953703</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1470,10 +1460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:14:49</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44155.88528935185</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1537,10 +1525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:43:22</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44155.86344907407</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1604,10 +1590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:42:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44155.86283564815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1671,10 +1655,8 @@
           <t>3728026797</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-20 20:17:41</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44155.84561342592</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1746,10 +1728,8 @@
           <t>3727880203</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:39:44</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44155.81925925926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1817,10 +1797,8 @@
           <t>3727735965</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:05:29</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44155.79547453704</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1884,10 +1862,8 @@
           <t>3727707993</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:00:19</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44155.79188657407</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1963,10 +1939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:17:03</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44155.76184027778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2038,10 +2012,8 @@
           <t>3727536330</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:16:46</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44155.76164351852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2110,10 +2082,8 @@
           <t>3727499845</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:10:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44155.75703703704</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2189,10 +2159,8 @@
           <t>3727469816</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-20 18:02:33</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44155.75177083333</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2268,10 +2236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:49:22</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44155.74261574074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2335,10 +2301,8 @@
           <t>3727351930</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:28:57</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44155.7284375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2414,10 +2378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:22:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44155.72364583334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2481,10 +2443,8 @@
           <t>3727031783</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:12:23</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44155.71693287037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2548,10 +2508,8 @@
           <t>3727283309</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-20 17:10:18</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44155.71548611111</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2627,10 +2585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:59:00</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44155.70763888889</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2698,10 +2654,8 @@
           <t>3727246834</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:56:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44155.70601851852</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2765,10 +2719,8 @@
           <t>3727031783</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:49:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44155.70084490741</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2837,10 +2789,8 @@
           <t>3727031783</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:47:58</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44155.69997685185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2908,10 +2858,8 @@
           <t>3727103815</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:32:06</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44155.68895833333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2975,10 +2923,8 @@
           <t>3727103815</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:28:49</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44155.68667824074</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3046,10 +2992,8 @@
           <t>3727103815</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:17:23</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44155.67873842592</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3113,10 +3057,8 @@
           <t>3727103815</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:08:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44155.67247685185</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3184,10 +3126,8 @@
           <t>3727086947</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-20 16:00:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44155.66707175926</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3295,10 +3235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:54:00</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44155.6625</v>
       </c>
       <c r="I40" t="n">
         <v>15</v>
@@ -3362,10 +3300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:52:22</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44155.66136574074</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3441,10 +3377,8 @@
           <t>3727031783</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:52:14</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44155.66127314815</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3508,10 +3442,8 @@
           <t>3727058989</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:50:41</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44155.66019675926</v>
       </c>
       <c r="I43" t="n">
         <v>58</v>
@@ -3586,10 +3518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:45:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44155.65650462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3661,10 +3591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:38:58</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44155.65206018519</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3732,10 +3660,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:38:41</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44155.65186342593</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3812,10 +3738,8 @@
           <t>3727031783</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:35:57</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44155.64996527778</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3883,10 +3807,8 @@
           <t>3727019402</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:32:59</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44155.64790509259</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3950,10 +3872,8 @@
           <t>3727006643</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:24:05</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44155.64172453704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4017,10 +3937,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:19:48</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44155.63875</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4084,10 +4002,8 @@
           <t>3726987020</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:17:47</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44155.63734953704</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4163,10 +4079,8 @@
           <t>3726979906</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:15:33</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44155.63579861111</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4238,10 +4152,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:14:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44155.63518518519</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4313,10 +4225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:11:24</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44155.63291666667</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4392,10 +4302,8 @@
           <t>3726967602</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:09:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44155.63140046296</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4467,10 +4375,8 @@
           <t>3726956583</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-20 15:04:50</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44155.62835648148</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4538,10 +4444,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:52:40</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44155.61990740741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4605,10 +4509,8 @@
           <t>3726931341</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:51:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44155.61917824074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4680,10 +4582,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:49:55</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44155.61799768519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4751,10 +4651,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:48:52</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44155.61726851852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4826,10 +4724,8 @@
           <t>3726919124</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:48:46</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44155.61719907408</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4905,10 +4801,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:46:42</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44155.61576388889</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4972,10 +4866,8 @@
           <t>3726912822</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:46:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44155.61563657408</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5043,10 +4935,8 @@
           <t>3726829983</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:39:34</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44155.61081018519</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5118,10 +5008,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:37:49</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44155.60959490741</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5185,10 +5073,8 @@
           <t>3726895004</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:36:02</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44155.60835648148</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5256,10 +5142,8 @@
           <t>3726883773</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:34:26</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44155.60724537037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5327,10 +5211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:32:06</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44155.605625</v>
       </c>
       <c r="I68" t="n">
         <v>18</v>
@@ -5394,10 +5276,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:31:28</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44155.60518518519</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5469,10 +5349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:30:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44155.60445601852</v>
       </c>
       <c r="I70" t="n">
         <v>30</v>
@@ -5544,10 +5422,8 @@
           <t>3726880367</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:30:00</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44155.60416666666</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -5611,10 +5487,8 @@
           <t>3726869640</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:29:03</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44155.60350694445</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5690,10 +5564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:23</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44155.60304398148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5761,10 +5633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:28:19</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44155.60299768519</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5836,10 +5706,8 @@
           <t>3726871431</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:26:01</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44155.60140046296</v>
       </c>
       <c r="I75" t="n">
         <v>11</v>
@@ -5907,10 +5775,8 @@
           <t>3726866613</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:25:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44155.60077546296</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5978,10 +5844,8 @@
           <t>3726870331</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:34</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44155.60039351852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6057,10 +5921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:29</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44155.60033564815</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6128,10 +5990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:23</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44155.60026620371</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6207,10 +6067,8 @@
           <t>3726865872</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:07</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44155.60008101852</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6282,10 +6140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:24:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44155.60005787037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6354,10 +6210,8 @@
           <t>3726864016</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:54</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44155.59923611111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6433,10 +6287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:34</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44155.59900462963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6512,10 +6364,8 @@
           <t>3726863504</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:14</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44155.59877314815</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6587,10 +6437,8 @@
           <t>3726863386</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:05</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44155.59866898148</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6666,10 +6514,8 @@
           <t>3726854156</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44155.59854166667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6737,10 +6583,8 @@
           <t>3726858000</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:21:44</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44155.59842592593</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6816,10 +6660,8 @@
           <t>3726861773</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44155.59766203703</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6895,10 +6737,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44155.59761574074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6975,10 +6815,8 @@
           <t>3726829983</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44155.59753472222</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7046,10 +6884,8 @@
           <t>3726861773</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:20:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44155.59730324074</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7117,10 +6953,8 @@
           <t>3726852473</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:50</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44155.59710648148</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7184,10 +7018,8 @@
           <t>3726852360</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:42</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44155.59701388889</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7263,10 +7095,8 @@
           <t>3726861059</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44155.59666666666</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7331,10 +7161,8 @@
           <t>3726851854</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:19:03</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44155.5965625</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7410,10 +7238,8 @@
           <t>3726849866</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:17:47</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44155.59568287037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7485,10 +7311,8 @@
           <t>3726844784</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:17:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44155.59540509259</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7556,10 +7380,8 @@
           <t>3726843829</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:16:05</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44155.59450231482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7635,10 +7457,8 @@
           <t>3726848193</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:15:44</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44155.59425925926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7710,10 +7530,8 @@
           <t>3726847180</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44155.59341435185</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7785,10 +7603,8 @@
           <t>3726842342</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:14:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44155.59309027778</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7864,10 +7680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:25</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44155.59195601852</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -7943,10 +7757,8 @@
           <t>3726845397</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:20</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44155.59189814814</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -8014,10 +7826,8 @@
           <t>3726841017</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:13</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44155.59181712963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8077,10 +7887,8 @@
           <t>3726840982</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:12:11</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44155.59179398148</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -8148,10 +7956,8 @@
           <t>3726829983</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:53</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44155.5908912037</v>
       </c>
       <c r="I106" t="n">
         <v>5</v>
@@ -8227,10 +8033,8 @@
           <t>3726834047</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:43</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44155.59077546297</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8306,10 +8110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:38</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44155.59071759259</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8385,10 +8187,8 @@
           <t>3726833962</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:10:38</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44155.59071759259</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8452,10 +8252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:09:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44155.59011574074</v>
       </c>
       <c r="I110" t="n">
         <v>233</v>
@@ -8519,10 +8317,8 @@
           <t>3726833003</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:09:29</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44155.58991898148</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8594,10 +8390,8 @@
           <t>3726828593</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:09:12</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44155.58972222222</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8673,10 +8467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:39</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44155.58934027778</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8740,10 +8532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:33</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44155.58927083333</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8815,10 +8605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:08:12</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44155.58902777778</v>
       </c>
       <c r="I115" t="n">
         <v>34</v>
@@ -8890,10 +8678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:07:56</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44155.5888425926</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8965,10 +8751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:06:12</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44155.58763888889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9040,10 +8824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:40</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44155.58587962963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9111,10 +8893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:09</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44155.58552083333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9190,10 +8970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:03:08</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44155.58550925926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9257,10 +9035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44155.58524305555</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9332,10 +9108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44155.58509259259</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9407,10 +9181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:19</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44155.58494212963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9488,10 +9260,8 @@
           <t>3726813153</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:17</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44155.58491898148</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9567,10 +9337,8 @@
           <t>3726808093</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:02:11</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44155.58484953704</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9646,10 +9414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:41</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44155.58450231481</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9725,10 +9491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:26</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44155.58432870371</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9800,10 +9564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:01:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44155.58414351852</v>
       </c>
       <c r="I128" t="n">
         <v>69</v>
@@ -9879,10 +9641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:00:50</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44155.58391203704</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
